--- a/REGULAR/1-RETIRED/COMPULSORY RETIREMENT/TIBAYAN, WILMER.xlsx
+++ b/REGULAR/1-RETIRED/COMPULSORY RETIREMENT/TIBAYAN, WILMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\COMPULSORY RETIREMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31C4A7-F03B-46BE-8E30-CF5FD94AD080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38270D7D-91DD-494D-B6C0-A1ABC52C5EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,10 +766,10 @@
     </r>
   </si>
   <si>
-    <t>TOTAL SL = 179.5</t>
-  </si>
-  <si>
     <t>TOTAL VL = 144.196</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 179.500</t>
   </si>
 </sst>
 </file>
@@ -1802,9 +1802,9 @@
   <dimension ref="A2:K441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1680" topLeftCell="A413" activePane="bottomLeft"/>
+      <pane ySplit="1680" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G432" sqref="G432"/>
+      <selection pane="bottomLeft" activeCell="N438" sqref="N438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13382,13 +13382,13 @@
       <c r="B426" s="11"/>
       <c r="C426" s="12"/>
       <c r="D426" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E426" s="9"/>
       <c r="F426" s="11"/>
       <c r="G426" s="12"/>
       <c r="H426" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>

--- a/REGULAR/1-RETIRED/COMPULSORY RETIREMENT/TIBAYAN, WILMER.xlsx
+++ b/REGULAR/1-RETIRED/COMPULSORY RETIREMENT/TIBAYAN, WILMER.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\COMPULSORY RETIREMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\COMPULSORY RETIREMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38270D7D-91DD-494D-B6C0-A1ABC52C5EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -775,7 +774,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1452,7 +1451,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1469,26 +1468,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K441" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K441"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1795,34 +1794,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1680" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="N438" sqref="N438"/>
+    <sheetView topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="2085" activePane="bottomLeft"/>
+      <selection activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D409" sqref="D409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +1844,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
@@ -1867,7 +1866,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
@@ -1889,7 +1888,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="H5" s="25" t="s">
         <v>18</v>
@@ -1897,7 +1896,7 @@
       <c r="I5" s="25"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="8"/>
       <c r="C6" s="29"/>
@@ -1910,7 +1909,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="51" t="s">
@@ -1927,7 +1926,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>23</v>
@@ -1986,7 +1985,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>43</v>
       </c>
@@ -2010,7 +2009,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="11" t="s">
         <v>45</v>
@@ -2032,7 +2031,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>35977</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="11" t="s">
         <v>47</v>
@@ -2087,7 +2086,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="46">
         <v>36008</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="11" t="s">
         <v>49</v>
@@ -2142,7 +2141,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>36039</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>36066</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="11" t="s">
         <v>51</v>
@@ -2197,7 +2196,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
         <v>36069</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
       <c r="B19" s="11" t="s">
         <v>51</v>
@@ -2252,7 +2251,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>36100</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
@@ -2309,7 +2308,7 @@
         <v>36122</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="11" t="s">
         <v>54</v>
@@ -2332,7 +2331,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>36130</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
       <c r="B24" s="11" t="s">
         <v>46</v>
@@ -2392,7 +2391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="11" t="s">
         <v>56</v>
@@ -2420,7 +2419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="11" t="s">
         <v>57</v>
@@ -2446,7 +2445,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>66</v>
       </c>
@@ -2470,7 +2469,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="46">
         <v>36161</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="11" t="s">
         <v>46</v>
@@ -2527,7 +2526,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" s="11" t="s">
         <v>68</v>
@@ -2550,7 +2549,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="46">
         <v>36192</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" s="11" t="s">
         <v>50</v>
@@ -2607,7 +2606,7 @@
         <v>36210</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" s="11" t="s">
         <v>70</v>
@@ -2630,7 +2629,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="46">
         <v>36220</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>36227</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="46"/>
       <c r="B35" s="11" t="s">
         <v>52</v>
@@ -2687,7 +2686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
       <c r="B36" s="11" t="s">
         <v>69</v>
@@ -2710,7 +2709,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="46">
         <v>36251</v>
       </c>
@@ -2740,7 +2739,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="46">
         <v>36281</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>36284</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="11" t="s">
         <v>72</v>
@@ -2799,7 +2798,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
       <c r="B40" s="11" t="s">
         <v>73</v>
@@ -2824,7 +2823,7 @@
         <v>36297</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="46">
         <v>36312</v>
       </c>
@@ -2854,7 +2853,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="46">
         <v>36342</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>36347</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
       <c r="B43" s="11" t="s">
         <v>50</v>
@@ -2911,7 +2910,7 @@
         <v>36360</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="46"/>
       <c r="B44" s="11" t="s">
         <v>53</v>
@@ -2938,7 +2937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="46"/>
       <c r="B45" s="11" t="s">
         <v>75</v>
@@ -2961,7 +2960,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="46">
         <v>36373</v>
       </c>
@@ -2991,7 +2990,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="46">
         <v>36404</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>36416</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="46"/>
       <c r="B48" s="11" t="s">
         <v>50</v>
@@ -3048,7 +3047,7 @@
         <v>36430</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="46"/>
       <c r="B49" s="11" t="s">
         <v>81</v>
@@ -3071,7 +3070,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="46">
         <v>36434</v>
       </c>
@@ -3101,7 +3100,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="46">
         <v>36465</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>36476</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="46"/>
       <c r="B52" s="11" t="s">
         <v>50</v>
@@ -3160,7 +3159,7 @@
         <v>36481</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="46">
         <v>36495</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>36495</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="46"/>
       <c r="B54" s="11" t="s">
         <v>83</v>
@@ -3220,7 +3219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
         <v>85</v>
       </c>
@@ -3244,7 +3243,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="46">
         <v>36526</v>
       </c>
@@ -3270,7 +3269,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="46">
         <v>36557</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>36577</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="46">
         <v>36586</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="46"/>
       <c r="B59" s="11" t="s">
         <v>86</v>
@@ -3359,7 +3358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="46">
         <v>36617</v>
       </c>
@@ -3385,7 +3384,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="46">
         <v>36647</v>
       </c>
@@ -3417,7 +3416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
       <c r="B62" s="11" t="s">
         <v>50</v>
@@ -3442,7 +3441,7 @@
         <v>36644</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="46">
         <v>36678</v>
       </c>
@@ -3468,7 +3467,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="46">
         <v>36708</v>
       </c>
@@ -3494,7 +3493,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="46">
         <v>36739</v>
       </c>
@@ -3524,7 +3523,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="46">
         <v>36770</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="46"/>
       <c r="B67" s="11" t="s">
         <v>91</v>
@@ -3579,7 +3578,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="46">
         <v>36800</v>
       </c>
@@ -3611,7 +3610,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="46">
         <v>36831</v>
       </c>
@@ -3643,7 +3642,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="46"/>
       <c r="B70" s="11" t="s">
         <v>47</v>
@@ -3666,7 +3665,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="46">
         <v>36861</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="46"/>
       <c r="B72" s="11" t="s">
         <v>92</v>
@@ -3724,7 +3723,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="45" t="s">
         <v>97</v>
       </c>
@@ -3748,7 +3747,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="46">
         <v>36892</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
       <c r="B75" s="11" t="s">
         <v>90</v>
@@ -3805,7 +3804,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="46">
         <v>36923</v>
       </c>
@@ -3831,7 +3830,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="46">
         <v>36951</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="46">
         <v>36982</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="46">
         <v>37012</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="46"/>
       <c r="B80" s="11" t="s">
         <v>101</v>
@@ -3942,7 +3941,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="46">
         <v>37043</v>
       </c>
@@ -3974,7 +3973,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="46"/>
       <c r="B82" s="11" t="s">
         <v>103</v>
@@ -3997,7 +3996,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="46">
         <v>37073</v>
       </c>
@@ -4027,7 +4026,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="46">
         <v>37104</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="46"/>
       <c r="B85" s="11" t="s">
         <v>98</v>
@@ -4086,7 +4085,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="46"/>
       <c r="B86" s="11" t="s">
         <v>105</v>
@@ -4109,7 +4108,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="46">
         <v>37135</v>
       </c>
@@ -4139,7 +4138,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="46">
         <v>37165</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>37172</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="46"/>
       <c r="B89" s="11" t="s">
         <v>72</v>
@@ -4198,7 +4197,7 @@
         <v>37182</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="46"/>
       <c r="B90" s="11" t="s">
         <v>107</v>
@@ -4223,7 +4222,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="46"/>
       <c r="B91" s="11" t="s">
         <v>108</v>
@@ -4246,7 +4245,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="46">
         <v>37196</v>
       </c>
@@ -4280,7 +4279,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="46"/>
       <c r="B93" s="11" t="s">
         <v>72</v>
@@ -4305,7 +4304,7 @@
         <v>37214</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="46"/>
       <c r="B94" s="11" t="s">
         <v>110</v>
@@ -4330,7 +4329,7 @@
         <v>37235</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="46"/>
       <c r="B95" s="11" t="s">
         <v>111</v>
@@ -4353,7 +4352,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="46">
         <v>37226</v>
       </c>
@@ -4383,7 +4382,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>116</v>
       </c>
@@ -4407,7 +4406,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="46">
         <v>37257</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="46"/>
       <c r="B99" s="11" t="s">
         <v>117</v>
@@ -4464,7 +4463,7 @@
         <v>37291</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="46">
         <v>37288</v>
       </c>
@@ -4494,7 +4493,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="46">
         <v>37316</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="46"/>
       <c r="B102" s="11" t="s">
         <v>70</v>
@@ -4556,7 +4555,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="46">
         <v>37347</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>37351</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="46"/>
       <c r="B104" s="11" t="s">
         <v>98</v>
@@ -4615,7 +4614,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="46">
         <v>37377</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>37389</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="46"/>
       <c r="B106" s="11" t="s">
         <v>109</v>
@@ -4674,7 +4673,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="46"/>
       <c r="B107" s="11" t="s">
         <v>119</v>
@@ -4697,7 +4696,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="46">
         <v>37408</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>37420</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="46"/>
       <c r="B109" s="11" t="s">
         <v>72</v>
@@ -4756,7 +4755,7 @@
         <v>37431</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="46"/>
       <c r="B110" s="11" t="s">
         <v>120</v>
@@ -4779,7 +4778,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="46">
         <v>37438</v>
       </c>
@@ -4811,7 +4810,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="46"/>
       <c r="B112" s="11" t="s">
         <v>72</v>
@@ -4836,7 +4835,7 @@
         <v>37446</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="46">
         <v>37469</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>37480</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="46"/>
       <c r="B114" s="11" t="s">
         <v>72</v>
@@ -4895,7 +4894,7 @@
         <v>37483</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="46"/>
       <c r="B115" s="11" t="s">
         <v>126</v>
@@ -4918,7 +4917,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="46">
         <v>37500</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="46"/>
       <c r="B117" s="11" t="s">
         <v>126</v>
@@ -4977,7 +4976,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="46"/>
       <c r="B118" s="11" t="s">
         <v>72</v>
@@ -5000,7 +4999,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="46">
         <v>37530</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>37550</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="46">
         <v>37561</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="46"/>
       <c r="B121" s="11" t="s">
         <v>126</v>
@@ -5091,7 +5090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="46"/>
       <c r="B122" s="11" t="s">
         <v>110</v>
@@ -5116,7 +5115,7 @@
         <v>37587</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="46">
         <v>37591</v>
       </c>
@@ -5146,7 +5145,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
         <v>131</v>
       </c>
@@ -5170,7 +5169,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="46">
         <v>37622</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="46"/>
       <c r="B126" s="11" t="s">
         <v>72</v>
@@ -5232,7 +5231,7 @@
         <v>37634</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="46"/>
       <c r="B127" s="11" t="s">
         <v>126</v>
@@ -5260,7 +5259,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="46">
         <v>37653</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>37664</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="46"/>
       <c r="B129" s="11" t="s">
         <v>98</v>
@@ -5320,7 +5319,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="46">
         <v>37681</v>
       </c>
@@ -5346,7 +5345,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="46">
         <v>37712</v>
       </c>
@@ -5380,7 +5379,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="46">
         <v>37742</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="46">
         <v>37773</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>37799</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="46"/>
       <c r="B134" s="11" t="s">
         <v>126</v>
@@ -5473,7 +5472,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="46"/>
       <c r="B135" s="11" t="s">
         <v>72</v>
@@ -5500,7 +5499,7 @@
         <v>37806</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="46">
         <v>37803</v>
       </c>
@@ -5524,7 +5523,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="11"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="46">
         <v>37834</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="46"/>
       <c r="B138" s="11" t="s">
         <v>138</v>
@@ -5583,7 +5582,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="46">
         <v>37865</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="46"/>
       <c r="B140" s="11" t="s">
         <v>107</v>
@@ -5642,7 +5641,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="46"/>
       <c r="B141" s="11" t="s">
         <v>141</v>
@@ -5665,7 +5664,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="11"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="46">
         <v>37895</v>
       </c>
@@ -5695,7 +5694,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="11"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="46">
         <v>37926</v>
       </c>
@@ -5726,7 +5725,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="46"/>
       <c r="B144" s="11" t="s">
         <v>143</v>
@@ -5749,7 +5748,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="11"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="46">
         <v>37956</v>
       </c>
@@ -5779,7 +5778,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="11"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="45" t="s">
         <v>148</v>
       </c>
@@ -5803,7 +5802,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="11"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="46">
         <v>37987</v>
       </c>
@@ -5833,7 +5832,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="11"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="46">
         <v>38018</v>
       </c>
@@ -5863,7 +5862,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="11"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="46">
         <v>38047</v>
       </c>
@@ -5893,7 +5892,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="46">
         <v>38078</v>
       </c>
@@ -5923,7 +5922,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="11"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="46">
         <v>38108</v>
       </c>
@@ -5953,7 +5952,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="11"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="46">
         <v>38139</v>
       </c>
@@ -5983,7 +5982,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="11"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="46">
         <v>38169</v>
       </c>
@@ -6013,7 +6012,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="11"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="46">
         <v>38200</v>
       </c>
@@ -6043,7 +6042,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="11"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="46">
         <v>38231</v>
       </c>
@@ -6073,7 +6072,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="11"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="46">
         <v>38261</v>
       </c>
@@ -6103,7 +6102,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="46">
         <v>38292</v>
       </c>
@@ -6133,7 +6132,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="11"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="46">
         <v>38322</v>
       </c>
@@ -6163,7 +6162,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="46"/>
       <c r="B159" s="11" t="s">
         <v>161</v>
@@ -6189,7 +6188,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="11"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="45" t="s">
         <v>159</v>
       </c>
@@ -6213,7 +6212,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="11"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="46">
         <v>38353</v>
       </c>
@@ -6239,7 +6238,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="11"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="46">
         <v>38384</v>
       </c>
@@ -6265,7 +6264,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="11"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="46">
         <v>38412</v>
       </c>
@@ -6291,7 +6290,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="11"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="46">
         <v>38443</v>
       </c>
@@ -6317,7 +6316,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="11"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="46">
         <v>38473</v>
       </c>
@@ -6343,7 +6342,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="11"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="46">
         <v>38504</v>
       </c>
@@ -6369,7 +6368,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="11"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="46">
         <v>38534</v>
       </c>
@@ -6395,7 +6394,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="11"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="46">
         <v>38565</v>
       </c>
@@ -6421,7 +6420,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="11"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="46">
         <v>38596</v>
       </c>
@@ -6447,7 +6446,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="11"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="46">
         <v>38626</v>
       </c>
@@ -6473,7 +6472,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="11"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="46">
         <v>38657</v>
       </c>
@@ -6499,7 +6498,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="11"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="46">
         <v>38687</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="46"/>
       <c r="B173" s="11" t="s">
         <v>53</v>
@@ -6556,7 +6555,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="45" t="s">
         <v>160</v>
       </c>
@@ -6580,7 +6579,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="11"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="46">
         <v>38718</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="46">
         <v>38749</v>
       </c>
@@ -6638,7 +6637,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="11"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="46">
         <v>38777</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="46">
         <v>38808</v>
       </c>
@@ -6696,7 +6695,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="11"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="46">
         <v>38838</v>
       </c>
@@ -6722,7 +6721,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="46">
         <v>38869</v>
       </c>
@@ -6748,7 +6747,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="11"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="46">
         <v>38899</v>
       </c>
@@ -6774,7 +6773,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="46">
         <v>38930</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="46">
         <v>38961</v>
       </c>
@@ -6832,7 +6831,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="11"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="46">
         <v>38991</v>
       </c>
@@ -6858,7 +6857,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="11"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="46">
         <v>39022</v>
       </c>
@@ -6884,7 +6883,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="11"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="46">
         <v>39052</v>
       </c>
@@ -6914,7 +6913,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="11"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
         <v>166</v>
       </c>
@@ -6938,7 +6937,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="11"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="46">
         <v>39083</v>
       </c>
@@ -6964,7 +6963,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="11"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="46">
         <v>39114</v>
       </c>
@@ -6990,7 +6989,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="11"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="46">
         <v>39142</v>
       </c>
@@ -7016,7 +7015,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="11"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="46">
         <v>39173</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="46"/>
       <c r="B192" s="11" t="s">
         <v>52</v>
@@ -7076,7 +7075,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="46"/>
       <c r="B193" s="11" t="s">
         <v>167</v>
@@ -7104,7 +7103,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="46">
         <v>39203</v>
       </c>
@@ -7130,7 +7129,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="11"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="46">
         <v>39234</v>
       </c>
@@ -7156,7 +7155,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="11"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="46">
         <v>39264</v>
       </c>
@@ -7182,7 +7181,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="46">
         <v>39295</v>
       </c>
@@ -7208,7 +7207,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="11"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="46">
         <v>39326</v>
       </c>
@@ -7234,7 +7233,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="11"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="46">
         <v>39356</v>
       </c>
@@ -7260,7 +7259,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="46">
         <v>39387</v>
       </c>
@@ -7286,7 +7285,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="11"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="46">
         <v>39417</v>
       </c>
@@ -7316,7 +7315,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
         <v>172</v>
       </c>
@@ -7340,7 +7339,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="46">
         <v>39448</v>
       </c>
@@ -7366,7 +7365,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="11"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="46">
         <v>39479</v>
       </c>
@@ -7392,7 +7391,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="11"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="46">
         <v>39508</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="46">
         <v>39539</v>
       </c>
@@ -7450,7 +7449,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="11"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="46">
         <v>39569</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="46"/>
       <c r="B208" s="11" t="s">
         <v>173</v>
@@ -7505,7 +7504,7 @@
         <v>39576</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="46">
         <v>39600</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="46">
         <v>39630</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="46"/>
       <c r="B211" s="11" t="s">
         <v>52</v>
@@ -7594,7 +7593,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="46"/>
       <c r="B212" s="11" t="s">
         <v>50</v>
@@ -7619,7 +7618,7 @@
         <v>39660</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="46">
         <v>39661</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="46">
         <v>39692</v>
       </c>
@@ -7683,7 +7682,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="46">
         <v>39722</v>
       </c>
@@ -7709,7 +7708,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="11"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="46">
         <v>39753</v>
       </c>
@@ -7735,7 +7734,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="11"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="46">
         <v>39783</v>
       </c>
@@ -7765,7 +7764,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="11"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
         <v>181</v>
       </c>
@@ -7789,7 +7788,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="11"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="46">
         <v>39814</v>
       </c>
@@ -7821,7 +7820,7 @@
         <v>39826</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="46">
         <f>EDATE(A219,1)</f>
         <v>39845</v>
@@ -7848,7 +7847,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="11"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="46">
         <f t="shared" ref="A221:A230" si="8">EDATE(A220,1)</f>
         <v>39873</v>
@@ -7881,7 +7880,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="46">
         <f t="shared" si="8"/>
         <v>39904</v>
@@ -7908,7 +7907,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="11"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="46">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -7935,7 +7934,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="11"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="46">
         <f t="shared" si="8"/>
         <v>39965</v>
@@ -7962,7 +7961,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="11"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="46">
         <f t="shared" si="8"/>
         <v>39995</v>
@@ -7995,7 +7994,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="46">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -8028,7 +8027,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="46">
         <f t="shared" si="8"/>
         <v>40057</v>
@@ -8061,7 +8060,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="46">
         <f t="shared" si="8"/>
         <v>40087</v>
@@ -8088,7 +8087,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="11"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="46">
         <f>EDATE(A228,1)</f>
         <v>40118</v>
@@ -8115,7 +8114,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="11"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="46">
         <f t="shared" si="8"/>
         <v>40148</v>
@@ -8146,7 +8145,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="11"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
         <v>186</v>
       </c>
@@ -8170,7 +8169,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="11"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="46">
         <v>40179</v>
       </c>
@@ -8196,7 +8195,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="11"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="46">
         <v>40210</v>
       </c>
@@ -8222,7 +8221,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="11"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="46">
         <v>40238</v>
       </c>
@@ -8248,7 +8247,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="11"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="46">
         <v>40269</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="46"/>
       <c r="B236" s="11" t="s">
         <v>50</v>
@@ -8305,7 +8304,7 @@
         <v>40287</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="46">
         <v>40299</v>
       </c>
@@ -8331,7 +8330,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="11"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="46">
         <v>40330</v>
       </c>
@@ -8363,7 +8362,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="46">
         <v>40360</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="46"/>
       <c r="B240" s="11" t="s">
         <v>46</v>
@@ -8420,7 +8419,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="46">
         <v>40391</v>
       </c>
@@ -8446,7 +8445,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="11"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="46">
         <v>40422</v>
       </c>
@@ -8472,7 +8471,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="11"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="46">
         <v>40452</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="46">
         <v>40483</v>
       </c>
@@ -8530,7 +8529,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="11"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="46">
         <v>40513</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="48" t="s">
         <v>193</v>
       </c>
@@ -8586,7 +8585,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="11"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="46">
         <v>40544</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="46">
         <v>40575</v>
       </c>
@@ -8644,7 +8643,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="46">
         <v>40603</v>
       </c>
@@ -8670,7 +8669,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="11"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="46">
         <v>40634</v>
       </c>
@@ -8696,7 +8695,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="11"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="46">
         <v>40664</v>
       </c>
@@ -8722,7 +8721,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="11"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="46">
         <v>40695</v>
       </c>
@@ -8748,7 +8747,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="11"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="46">
         <v>40725</v>
       </c>
@@ -8774,7 +8773,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="11"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="46">
         <v>40756</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="46"/>
       <c r="B255" s="11" t="s">
         <v>46</v>
@@ -8831,7 +8830,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="46">
         <v>40787</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>40801</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="46">
         <v>40817</v>
       </c>
@@ -8895,7 +8894,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="46"/>
       <c r="B258" s="11" t="s">
         <v>46</v>
@@ -8920,7 +8919,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="46">
         <v>40848</v>
       </c>
@@ -8952,7 +8951,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="46">
         <v>40878</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="46"/>
       <c r="B261" s="11" t="s">
         <v>53</v>
@@ -9012,7 +9011,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="46"/>
       <c r="B262" s="11" t="s">
         <v>161</v>
@@ -9038,7 +9037,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="11"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>202</v>
       </c>
@@ -9062,7 +9061,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="11"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="46">
         <v>40909</v>
       </c>
@@ -9094,7 +9093,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="46">
         <v>40940</v>
       </c>
@@ -9126,7 +9125,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="46"/>
       <c r="B266" s="11" t="s">
         <v>46</v>
@@ -9151,7 +9150,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="46">
         <v>40969</v>
       </c>
@@ -9177,7 +9176,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="11"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="46">
         <v>41000</v>
       </c>
@@ -9203,7 +9202,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="11"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="46">
         <v>41030</v>
       </c>
@@ -9235,7 +9234,7 @@
         <v>41036</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="46"/>
       <c r="B270" s="11" t="s">
         <v>50</v>
@@ -9260,7 +9259,7 @@
         <v>41051</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="46"/>
       <c r="B271" s="11" t="s">
         <v>203</v>
@@ -9283,7 +9282,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="11"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="46">
         <v>41061</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>41071</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="46"/>
       <c r="B273" s="11" t="s">
         <v>204</v>
@@ -9338,7 +9337,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="11"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="46">
         <v>41091</v>
       </c>
@@ -9368,7 +9367,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="11"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="46">
         <v>41122</v>
       </c>
@@ -9394,7 +9393,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="11"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="46">
         <v>41153</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="46">
         <v>41183</v>
       </c>
@@ -9452,7 +9451,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="11"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="46">
         <v>41214</v>
       </c>
@@ -9478,7 +9477,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="11"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="46">
         <v>41244</v>
       </c>
@@ -9510,7 +9509,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="45" t="s">
         <v>211</v>
       </c>
@@ -9534,7 +9533,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="11"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="46">
         <v>41275</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="46">
         <v>41306</v>
       </c>
@@ -9592,7 +9591,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="11"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="46">
         <v>41334</v>
       </c>
@@ -9624,7 +9623,7 @@
         <v>41341</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="46">
         <v>41365</v>
       </c>
@@ -9656,7 +9655,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="46"/>
       <c r="B285" s="11" t="s">
         <v>53</v>
@@ -9684,7 +9683,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="46"/>
       <c r="B286" s="11" t="s">
         <v>161</v>
@@ -9712,7 +9711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="46">
         <v>41395</v>
       </c>
@@ -9742,7 +9741,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="11"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="46">
         <v>41426</v>
       </c>
@@ -9772,7 +9771,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="11"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="46">
         <v>41456</v>
       </c>
@@ -9798,7 +9797,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="11"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="46">
         <v>41487</v>
       </c>
@@ -9828,7 +9827,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="11"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="46">
         <v>41518</v>
       </c>
@@ -9858,7 +9857,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="11"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="46">
         <v>41548</v>
       </c>
@@ -9888,7 +9887,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="11"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="46">
         <v>41579</v>
       </c>
@@ -9914,7 +9913,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="11"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="46">
         <v>41609</v>
       </c>
@@ -9944,7 +9943,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="11"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="45" t="s">
         <v>221</v>
       </c>
@@ -9968,7 +9967,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="11"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="46">
         <v>41640</v>
       </c>
@@ -9994,7 +9993,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="11"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="46">
         <v>41671</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="46">
         <v>41699</v>
       </c>
@@ -10052,7 +10051,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="11"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="46">
         <v>41730</v>
       </c>
@@ -10078,7 +10077,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="11"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="46">
         <v>41760</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="11"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="46">
         <v>41791</v>
       </c>
@@ -10130,7 +10129,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="11"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="46">
         <v>41821</v>
       </c>
@@ -10156,7 +10155,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="11"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="46">
         <v>41852</v>
       </c>
@@ -10182,7 +10181,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="11"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="46">
         <v>41883</v>
       </c>
@@ -10208,7 +10207,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="11"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="46">
         <v>41913</v>
       </c>
@@ -10234,7 +10233,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="11"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="46">
         <v>41944</v>
       </c>
@@ -10260,7 +10259,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="11"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="46">
         <v>41974</v>
       </c>
@@ -10290,7 +10289,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="11"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="45" t="s">
         <v>223</v>
       </c>
@@ -10314,7 +10313,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="11"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="46">
         <v>42005</v>
       </c>
@@ -10340,7 +10339,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="11"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="46">
         <v>42036</v>
       </c>
@@ -10366,7 +10365,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="11"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="46">
         <v>42064</v>
       </c>
@@ -10392,7 +10391,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="11"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="46">
         <v>42095</v>
       </c>
@@ -10418,7 +10417,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="11"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="46">
         <v>42125</v>
       </c>
@@ -10444,7 +10443,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="11"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="46">
         <v>42156</v>
       </c>
@@ -10470,7 +10469,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="11"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="46">
         <v>42186</v>
       </c>
@@ -10496,7 +10495,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="11"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="46">
         <v>42217</v>
       </c>
@@ -10522,7 +10521,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="11"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="46">
         <v>42248</v>
       </c>
@@ -10548,7 +10547,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="11"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="46">
         <v>42278</v>
       </c>
@@ -10574,7 +10573,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="11"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="46">
         <v>42309</v>
       </c>
@@ -10600,7 +10599,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="11"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="46">
         <v>42339</v>
       </c>
@@ -10630,7 +10629,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="11"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="48" t="s">
         <v>224</v>
       </c>
@@ -10654,7 +10653,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="11"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="46">
         <v>42370</v>
       </c>
@@ -10680,7 +10679,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="11"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="46">
         <v>42401</v>
       </c>
@@ -10706,7 +10705,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="11"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="46">
         <v>42430</v>
       </c>
@@ -10732,7 +10731,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="11"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="46">
         <v>42461</v>
       </c>
@@ -10758,7 +10757,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="11"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="46">
         <v>42491</v>
       </c>
@@ -10784,7 +10783,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="11"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="46">
         <v>42522</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="46">
         <v>42552</v>
       </c>
@@ -10842,7 +10841,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="11"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="46">
         <v>42583</v>
       </c>
@@ -10868,7 +10867,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="11"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="46">
         <v>42614</v>
       </c>
@@ -10894,7 +10893,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="11"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="46">
         <v>42644</v>
       </c>
@@ -10920,7 +10919,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="11"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="46">
         <v>42675</v>
       </c>
@@ -10946,7 +10945,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="11"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="46">
         <v>42705</v>
       </c>
@@ -10976,7 +10975,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="11"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="48" t="s">
         <v>226</v>
       </c>
@@ -11000,7 +10999,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="11"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="46">
         <v>42736</v>
       </c>
@@ -11026,7 +11025,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="11"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="46">
         <v>42767</v>
       </c>
@@ -11052,7 +11051,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="11"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="46">
         <v>42795</v>
       </c>
@@ -11078,7 +11077,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="11"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="46">
         <v>42826</v>
       </c>
@@ -11104,7 +11103,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="11"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="46">
         <v>42856</v>
       </c>
@@ -11130,7 +11129,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="11"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="46">
         <v>42887</v>
       </c>
@@ -11156,7 +11155,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="11"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="46">
         <v>42917</v>
       </c>
@@ -11182,7 +11181,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="11"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="46">
         <v>42948</v>
       </c>
@@ -11208,7 +11207,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="11"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="46">
         <v>42979</v>
       </c>
@@ -11234,7 +11233,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="11"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="46">
         <v>43009</v>
       </c>
@@ -11260,7 +11259,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="11"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="46">
         <v>43040</v>
       </c>
@@ -11286,7 +11285,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="11"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="46">
         <v>43070</v>
       </c>
@@ -11316,7 +11315,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="11"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="45" t="s">
         <v>227</v>
       </c>
@@ -11340,7 +11339,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="11"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="46">
         <v>43101</v>
       </c>
@@ -11366,7 +11365,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="11"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="46">
         <v>43132</v>
       </c>
@@ -11392,7 +11391,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="11"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="46">
         <v>43160</v>
       </c>
@@ -11424,7 +11423,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="46">
         <v>43191</v>
       </c>
@@ -11450,7 +11449,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="11"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="46">
         <v>43221</v>
       </c>
@@ -11476,7 +11475,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="11"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="46">
         <v>43252</v>
       </c>
@@ -11502,7 +11501,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="11"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="46">
         <v>43282</v>
       </c>
@@ -11528,7 +11527,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="11"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="46">
         <v>43313</v>
       </c>
@@ -11554,7 +11553,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="11"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="46">
         <v>43344</v>
       </c>
@@ -11580,7 +11579,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="11"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="46">
         <v>43374</v>
       </c>
@@ -11606,7 +11605,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="11"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="46">
         <v>43405</v>
       </c>
@@ -11632,7 +11631,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="11"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="46">
         <v>43435</v>
       </c>
@@ -11662,7 +11661,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="11"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="45" t="s">
         <v>229</v>
       </c>
@@ -11686,7 +11685,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="11"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="46">
         <v>43466</v>
       </c>
@@ -11712,7 +11711,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="11"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="46">
         <v>43497</v>
       </c>
@@ -11738,7 +11737,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="11"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="46">
         <v>43525</v>
       </c>
@@ -11764,7 +11763,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="11"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="46">
         <v>43556</v>
       </c>
@@ -11790,7 +11789,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="11"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="46">
         <v>43586</v>
       </c>
@@ -11816,7 +11815,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="11"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="46">
         <v>43617</v>
       </c>
@@ -11842,7 +11841,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="11"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="46">
         <v>43647</v>
       </c>
@@ -11868,7 +11867,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="11"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="46">
         <v>43678</v>
       </c>
@@ -11894,7 +11893,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="11"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="46">
         <v>43709</v>
       </c>
@@ -11920,7 +11919,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="11"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="46">
         <v>43739</v>
       </c>
@@ -11946,7 +11945,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="11"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="46">
         <v>43770</v>
       </c>
@@ -11972,7 +11971,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="11"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="46">
         <v>43800</v>
       </c>
@@ -12002,7 +12001,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="11"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="45" t="s">
         <v>230</v>
       </c>
@@ -12026,7 +12025,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="11"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="46">
         <v>43831</v>
       </c>
@@ -12052,7 +12051,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="11"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="46">
         <v>43862</v>
       </c>
@@ -12078,7 +12077,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="11"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="46">
         <v>43891</v>
       </c>
@@ -12104,7 +12103,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="11"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="46">
         <v>43922</v>
       </c>
@@ -12130,7 +12129,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="11"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="46">
         <v>43952</v>
       </c>
@@ -12156,7 +12155,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="11"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="46">
         <v>43983</v>
       </c>
@@ -12182,7 +12181,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="11"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="46">
         <v>44013</v>
       </c>
@@ -12208,7 +12207,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="11"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="46">
         <v>44044</v>
       </c>
@@ -12234,7 +12233,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="11"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="46">
         <v>44075</v>
       </c>
@@ -12260,7 +12259,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="11"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="46">
         <v>44105</v>
       </c>
@@ -12286,7 +12285,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="11"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="46">
         <v>44136</v>
       </c>
@@ -12312,7 +12311,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="11"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="46">
         <v>44166</v>
       </c>
@@ -12342,7 +12341,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="11"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="45" t="s">
         <v>231</v>
       </c>
@@ -12366,7 +12365,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="11"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="46">
         <v>44197</v>
       </c>
@@ -12392,7 +12391,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="11"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="46">
         <v>44228</v>
       </c>
@@ -12418,7 +12417,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="11"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="46">
         <v>44256</v>
       </c>
@@ -12444,7 +12443,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="11"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="46">
         <v>44287</v>
       </c>
@@ -12470,7 +12469,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="11"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="46">
         <v>44317</v>
       </c>
@@ -12496,7 +12495,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="11"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="46">
         <v>44348</v>
       </c>
@@ -12522,7 +12521,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="11"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="46">
         <v>44378</v>
       </c>
@@ -12548,7 +12547,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="11"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="46">
         <v>44409</v>
       </c>
@@ -12574,7 +12573,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="11"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="46">
         <v>44440</v>
       </c>
@@ -12600,7 +12599,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="11"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="46">
         <v>44470</v>
       </c>
@@ -12626,7 +12625,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="11"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="46">
         <v>44501</v>
       </c>
@@ -12652,7 +12651,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="11"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="46">
         <v>44531</v>
       </c>
@@ -12682,7 +12681,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="11"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="45" t="s">
         <v>232</v>
       </c>
@@ -12706,7 +12705,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="11"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="46">
         <v>44562</v>
       </c>
@@ -12732,7 +12731,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="11"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="46">
         <v>44593</v>
       </c>
@@ -12758,7 +12757,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="11"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="46">
         <v>44621</v>
       </c>
@@ -12784,7 +12783,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="11"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="46">
         <v>44652</v>
       </c>
@@ -12810,7 +12809,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="11"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="46">
         <v>44682</v>
       </c>
@@ -12836,7 +12835,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="11"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="46">
         <v>44713</v>
       </c>
@@ -12862,7 +12861,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="11"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="46">
         <v>44743</v>
       </c>
@@ -12888,7 +12887,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="11"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="46">
         <v>44774</v>
       </c>
@@ -12914,7 +12913,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="11"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="46">
         <v>44805</v>
       </c>
@@ -12940,7 +12939,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="11"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="46">
         <v>44835</v>
       </c>
@@ -12966,7 +12965,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="11"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="46">
         <v>44866</v>
       </c>
@@ -12992,7 +12991,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="11"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="46">
         <v>44896</v>
       </c>
@@ -13022,7 +13021,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="11"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="45" t="s">
         <v>233</v>
       </c>
@@ -13046,7 +13045,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="11"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="46">
         <v>44927</v>
       </c>
@@ -13072,7 +13071,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="11"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="46">
         <v>44958</v>
       </c>
@@ -13098,7 +13097,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="11"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="46">
         <v>44986</v>
       </c>
@@ -13124,7 +13123,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="11"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="46">
         <v>45017</v>
       </c>
@@ -13150,7 +13149,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="11"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="46">
         <v>45047</v>
       </c>
@@ -13176,7 +13175,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="11"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="46">
         <v>45078</v>
       </c>
@@ -13202,7 +13201,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="11"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="46">
         <v>45108</v>
       </c>
@@ -13228,7 +13227,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="11"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="46">
         <v>45139</v>
       </c>
@@ -13254,7 +13253,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="11"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="46">
         <v>45170</v>
       </c>
@@ -13280,7 +13279,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="11"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="46">
         <v>45200</v>
       </c>
@@ -13306,7 +13305,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="11"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="46">
         <v>45231</v>
       </c>
@@ -13332,7 +13331,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="11"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="46">
         <v>45266</v>
       </c>
@@ -13362,7 +13361,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="11"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="46"/>
       <c r="B425" s="49" t="s">
         <v>238</v>
@@ -13377,7 +13376,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="11"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="46"/>
       <c r="B426" s="11"/>
       <c r="C426" s="12"/>
@@ -13394,7 +13393,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="11"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="46"/>
       <c r="B427" s="11"/>
       <c r="C427" s="12" t="s">
@@ -13411,7 +13410,7 @@
       <c r="J427" s="43"/>
       <c r="K427" s="43"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="46"/>
       <c r="B428" s="11"/>
       <c r="C428" s="12"/>
@@ -13424,7 +13423,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="11"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="46"/>
       <c r="B429" s="11"/>
       <c r="C429" s="12"/>
@@ -13437,7 +13436,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="11"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="46"/>
       <c r="B430" s="11"/>
       <c r="C430" s="12"/>
@@ -13450,7 +13449,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="11"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="46"/>
       <c r="B431" s="11"/>
       <c r="C431" s="12"/>
@@ -13463,7 +13462,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="11"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="46"/>
       <c r="B432" s="11"/>
       <c r="C432" s="12"/>
@@ -13476,7 +13475,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="11"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="46"/>
       <c r="B433" s="11"/>
       <c r="C433" s="12"/>
@@ -13489,7 +13488,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="11"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="46"/>
       <c r="B434" s="11"/>
       <c r="C434" s="12"/>
@@ -13502,7 +13501,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="11"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="46"/>
       <c r="B435" s="11"/>
       <c r="C435" s="12"/>
@@ -13515,7 +13514,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="11"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="46"/>
       <c r="B436" s="11"/>
       <c r="C436" s="12"/>
@@ -13528,7 +13527,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="11"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="46"/>
       <c r="B437" s="11"/>
       <c r="C437" s="12"/>
@@ -13541,7 +13540,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="11"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="46"/>
       <c r="B438" s="11"/>
       <c r="C438" s="12"/>
@@ -13554,7 +13553,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="11"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="46"/>
       <c r="B439" s="11"/>
       <c r="C439" s="12"/>
@@ -13567,7 +13566,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="11"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="46"/>
       <c r="B440" s="11"/>
       <c r="C440" s="12"/>
@@ -13580,7 +13579,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="11"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="46"/>
       <c r="B441" s="11"/>
       <c r="C441" s="12"/>
@@ -13608,10 +13607,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13634,28 +13633,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -13668,7 +13667,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>24</v>
       </c>
@@ -13697,25 +13696,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>16.332000000000001</v>
       </c>
       <c r="B3" s="11">
         <v>19.25</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="38">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="33">
@@ -13727,17 +13720,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="31"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -13758,7 +13751,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="35">
         <v>1</v>
       </c>
@@ -13785,7 +13778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="35">
         <v>2</v>
       </c>
@@ -13811,7 +13804,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="35">
         <v>3</v>
       </c>
@@ -13837,7 +13830,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="35">
         <v>4</v>
       </c>
@@ -13863,7 +13856,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="35">
         <v>5</v>
       </c>
@@ -13889,7 +13882,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="35">
         <v>6</v>
       </c>
@@ -13915,7 +13908,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="35">
         <v>7</v>
       </c>
@@ -13941,7 +13934,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="35">
         <v>8</v>
       </c>
@@ -13967,7 +13960,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="35">
         <v>9</v>
       </c>
@@ -13987,7 +13980,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="35">
         <v>10</v>
       </c>
@@ -14007,7 +14000,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="35">
         <v>11</v>
       </c>
@@ -14027,7 +14020,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="35">
         <v>12</v>
       </c>
@@ -14048,7 +14041,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="35">
         <v>13</v>
       </c>
@@ -14069,7 +14062,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="35">
         <v>14</v>
       </c>
@@ -14090,7 +14083,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="35">
         <v>15</v>
       </c>
@@ -14111,7 +14104,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="35">
         <v>16</v>
       </c>
@@ -14132,7 +14125,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="35">
         <v>17</v>
       </c>
@@ -14153,7 +14146,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="35">
         <v>18</v>
       </c>
@@ -14174,7 +14167,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="35">
         <v>19</v>
       </c>
@@ -14195,7 +14188,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="35">
         <v>20</v>
       </c>
@@ -14216,7 +14209,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="35">
         <v>21</v>
       </c>
@@ -14237,7 +14230,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="35">
         <v>22</v>
       </c>
@@ -14258,7 +14251,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="35">
         <v>23</v>
       </c>
@@ -14279,7 +14272,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="35">
         <v>24</v>
       </c>
@@ -14300,7 +14293,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="35">
         <v>25</v>
       </c>
@@ -14321,7 +14314,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="35">
         <v>26</v>
       </c>
@@ -14342,7 +14335,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="35">
         <v>27</v>
       </c>
@@ -14363,7 +14356,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="35">
         <v>28</v>
       </c>
@@ -14384,7 +14377,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35">
         <v>29</v>
       </c>
@@ -14405,7 +14398,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="35">
         <v>30</v>
       </c>
@@ -14426,7 +14419,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="35">
         <v>31</v>
       </c>
@@ -14447,7 +14440,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="35">
         <v>32</v>
       </c>
@@ -14456,7 +14449,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35">
         <v>33</v>
       </c>
@@ -14465,7 +14458,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="35">
         <v>34</v>
       </c>
@@ -14474,7 +14467,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="35">
         <v>35</v>
       </c>
@@ -14483,7 +14476,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="35">
         <v>36</v>
       </c>
@@ -14492,7 +14485,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="35">
         <v>37</v>
       </c>
@@ -14501,7 +14494,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="35">
         <v>38</v>
       </c>
@@ -14510,7 +14503,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="35">
         <v>39</v>
       </c>
@@ -14519,7 +14512,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="35">
         <v>40</v>
       </c>
@@ -14528,7 +14521,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="35">
         <v>41</v>
       </c>
@@ -14537,7 +14530,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="35">
         <v>42</v>
       </c>
@@ -14546,7 +14539,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="35">
         <v>43</v>
       </c>
@@ -14555,7 +14548,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="35">
         <v>44</v>
       </c>
@@ -14564,7 +14557,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="35">
         <v>45</v>
       </c>
@@ -14573,7 +14566,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="35">
         <v>46</v>
       </c>
@@ -14582,7 +14575,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="35">
         <v>47</v>
       </c>
@@ -14591,7 +14584,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="35">
         <v>48</v>
       </c>
@@ -14600,7 +14593,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="35">
         <v>49</v>
       </c>
@@ -14609,7 +14602,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="35">
         <v>50</v>
       </c>
@@ -14618,7 +14611,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="35">
         <v>51</v>
       </c>
@@ -14627,7 +14620,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="35">
         <v>52</v>
       </c>
@@ -14636,7 +14629,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="35">
         <v>53</v>
       </c>
@@ -14645,7 +14638,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="35">
         <v>54</v>
       </c>
@@ -14654,7 +14647,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="35">
         <v>55</v>
       </c>
@@ -14663,7 +14656,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="35">
         <v>56</v>
       </c>
@@ -14672,7 +14665,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="35">
         <v>57</v>
       </c>
@@ -14681,7 +14674,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="35">
         <v>58</v>
       </c>
@@ -14690,7 +14683,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="35">
         <v>59</v>
       </c>
@@ -14699,7 +14692,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="35">
         <v>60</v>
       </c>
@@ -14708,7 +14701,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
